--- a/테스트케이스.xlsx
+++ b/테스트케이스.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\multicampus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\webmobile-final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="134">
   <si>
     <t>EPIC</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -260,17 +260,6 @@
   <si>
     <t>댓글을 작성한 유저만 해당 댓글의 수정,삭제 버튼이 노출되고 클릭시 해당 기능 수행</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[4] 포스트 상세 페이지 구현
-1. 포스트 상세페이지를 만들고 클릭시 이동
-2. 상세페이지에 댓글을 추가
-3. 댓글 작성은 회원만 할 수 있고 댓글을 작성한 본인만 수정, 삭제 가능
-4. 더보기 버튼 구현(처음에 6개 로딩 후 클릭시 6개를 추가로 더 로딩한다)
-5. 관리자, 팀원으로 로그인 시 글쓰기 버튼 노출 &amp; 클릭시 페이지 이동
-6. 관리자, 팀원으로 로그인 시 상세보기 페이지에서 삭제 수정 버튼 노출 &amp; 구현
-7. 관리자, 팀원으로 로그인하지 않은 경우, 작성, 수정, 삭제 불가</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>이슈 번호</t>
@@ -448,27 +437,147 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[4] 포스트 상세 페이지 구현
+    <t>P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3] 관리자 전용 페이지 제작 
+4. 현재 총 게시글 수 표시
+5. 웹로그 확인 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7] PWA2 - 오프라인 데이터 활용을 위한 DB 구현
+1. POST, PORTFOLIO 오프라인으로 저장
+2. Cloud firestore - 오프라인 데이터 사용 설정
+3. 오프라인 상태에서도 웹 환경 확인 가능(service worker를 사용해 pwa를 오프라인에서도 동작)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1..</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오프라인 상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post, portfolio 저장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post, portfolio가 오프라인 상태에서도 저장됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>issue free</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4주차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5] 포스트 상세 페이지 구현
+1. 포스트 상세페이지를 만들고 클릭시 이동
+2. 상세페이지에 댓글을 추가
+3. 댓글 작성은 회원만 할 수 있고 댓글을 작성한 본인만 수정, 삭제 가능
+4. 더보기 버튼 구현(처음에 6개 로딩 후 클릭시 6개를 추가로 더 로딩한다)
+5. 관리자, 팀원으로 로그인 시 글쓰기 버튼 노출 &amp; 클릭시 페이지 이동
+6. 관리자, 팀원으로 로그인 시 상세보기 페이지에서 삭제 수정 버튼 노출 &amp; 구현
+7. 관리자, 팀원으로 로그인하지 않은 경우, 작성, 수정, 삭제 불가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5] 포스트 상세 페이지 구현
 3. 댓글 작성은 회원만 할 수 있고 댓글을 작성한 본인만 수정, 삭제 가능
 6. 관리자, 팀원으로 로그인 시 상세보기 페이지에서 삭제 수정 버튼 노출 &amp; 구현
 7. 관리자, 팀원으로 로그인하지 않은 경우, 작성, 수정, 삭제 불가</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>P</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3] 관리자 전용 페이지 제작 
-4. 현재 총 게시글 수 표시
-5. 웹로그 확인 가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[7] PWA2 - 오프라인 데이터 활용을 위한 DB 구현
-1. POST, PORTFOLIO 오프라인으로 저장
-2. Cloud firestore - 오프라인 데이터 사용 설정
-3. 오프라인 상태에서도 웹 환경 확인 가능(service worker를 사용해 pwa를 오프라인에서도 동작)</t>
+    <t>[6] PWA1 - 푸시 알림 기능 구현
+1. 첫 방문 시 알림 허용/차단 여부 쿠키로 판단
+2. 쿠키를 허용한 유저에게 글 등록 시 푸시 알람
+3. 관리자 회원은 새로운 댓글 등록 시 푸시 알람 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 가입 후 첫 로그인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림을 허용여부 alert 창 띄움</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠키 허용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>push 알림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 회원 로그인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새 댓글 등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새 댓글 등록되었다는 푸시 알람</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1..</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1..</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오프라인 데이터 사용 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1..</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오프라인 상태에서 웹 환경 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-2..</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>service worker 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwa를 오프라인상태에서도 동작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[8] Q&amp;A 채팅 기능 구현
+1. 챗봇 API를 이요하여 Q&amp;A 채팅 기능 구현
+2. 자주묻는질문과 회원롤은 직접등록</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -476,23 +585,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>오프라인 상태</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>post, portfolio 저장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>post, portfolio가 오프라인 상태에서도 저장됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>issue free</t>
+    <t>챗봇 API 등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>챗봇 버튼 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>챗봇이 잘 불러와지는가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1..</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목에 대한 답변을 잘 답변</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -726,7 +839,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -777,6 +890,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1060,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J97"/>
+  <dimension ref="B2:J125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="D109" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1077,7 +1193,7 @@
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="17.399999999999999" customHeight="1" thickBot="1"/>
@@ -1096,7 +1212,7 @@
     </row>
     <row r="5" spans="2:10" ht="17.399999999999999" customHeight="1">
       <c r="B5" s="11" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -1135,7 +1251,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="34.799999999999997">
@@ -1144,7 +1260,7 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>8</v>
@@ -1165,7 +1281,7 @@
         <v>48</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>16</v>
@@ -1179,7 +1295,7 @@
         <v>51</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>52</v>
@@ -1203,7 +1319,7 @@
     </row>
     <row r="14" spans="2:10" ht="52.2">
       <c r="B14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="5" t="s">
@@ -1352,7 +1468,7 @@
         <v>16</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="2:10">
@@ -1372,7 +1488,7 @@
         <v>16</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="2:10">
@@ -1573,10 +1689,10 @@
       <c r="D48" s="5"/>
       <c r="E48" s="4"/>
       <c r="F48" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="2:10">
@@ -1589,7 +1705,7 @@
     </row>
     <row r="50" spans="2:10">
       <c r="B50" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="2:10" ht="18" thickBot="1"/>
@@ -1608,7 +1724,7 @@
     </row>
     <row r="53" spans="2:10">
       <c r="B53" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
@@ -1656,7 +1772,7 @@
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>8</v>
@@ -1677,7 +1793,7 @@
         <v>48</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>16</v>
@@ -1694,10 +1810,10 @@
         <v>51</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>16</v>
@@ -1711,13 +1827,13 @@
         <v>49</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D61" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>16</v>
@@ -1731,13 +1847,13 @@
         <v>9</v>
       </c>
       <c r="C62" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>16</v>
@@ -1748,16 +1864,16 @@
     </row>
     <row r="63" spans="2:10" ht="34.799999999999997">
       <c r="B63" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>16</v>
@@ -1771,13 +1887,13 @@
         <v>10</v>
       </c>
       <c r="C64" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="E64" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>16</v>
@@ -1788,16 +1904,16 @@
     </row>
     <row r="65" spans="2:10">
       <c r="B65" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="D65" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="E65" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>16</v>
@@ -1811,16 +1927,16 @@
         <v>12</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D66" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>11</v>
@@ -1831,10 +1947,10 @@
         <v>14</v>
       </c>
       <c r="C67" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>24</v>
@@ -1868,7 +1984,7 @@
     </row>
     <row r="71" spans="2:10">
       <c r="B71" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
@@ -1912,42 +2028,42 @@
     </row>
     <row r="76" spans="2:10">
       <c r="B76" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D76" s="5" t="s">
+      <c r="F76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G76" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="77" spans="2:10">
       <c r="B77" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="D77" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="E77" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E77" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="F77" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="2:10" ht="18" thickBot="1">
@@ -1969,7 +2085,7 @@
     </row>
     <row r="80" spans="2:10">
       <c r="B80" s="11" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
@@ -2008,7 +2124,7 @@
         <v>5</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="2:10" ht="34.799999999999997">
@@ -2023,7 +2139,7 @@
         <v>54</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>11</v>
@@ -2105,7 +2221,7 @@
     </row>
     <row r="91" spans="2:10">
       <c r="B91" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C91" s="12"/>
       <c r="D91" s="12"/>
@@ -2149,25 +2265,25 @@
     </row>
     <row r="96" spans="2:10">
       <c r="B96" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D96" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="E96" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="F96" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="G96" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F96" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7">
+    </row>
+    <row r="97" spans="2:10">
       <c r="B97" s="3"/>
       <c r="C97" s="4"/>
       <c r="D97" s="5"/>
@@ -2175,15 +2291,305 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
     </row>
+    <row r="98" spans="2:10">
+      <c r="B98" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" ht="18" thickBot="1"/>
+    <row r="100" spans="2:10">
+      <c r="B100" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="10"/>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="13"/>
+    </row>
+    <row r="102" spans="2:10" ht="73.8" customHeight="1" thickBot="1">
+      <c r="B102" s="14"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+    </row>
+    <row r="104" spans="2:10">
+      <c r="B104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" s="3" customFormat="1">
+      <c r="B105" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" s="3" customFormat="1">
+      <c r="B106" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" s="3" customFormat="1">
+      <c r="B107" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" ht="18" thickBot="1"/>
+    <row r="109" spans="2:10">
+      <c r="B109" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="10"/>
+    </row>
+    <row r="110" spans="2:10">
+      <c r="B110" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="13"/>
+    </row>
+    <row r="111" spans="2:10" ht="61.2" customHeight="1" thickBot="1">
+      <c r="B111" s="14"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+    </row>
+    <row r="114" spans="2:10">
+      <c r="B114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10">
+      <c r="B115" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E115" s="4"/>
+      <c r="F115" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10">
+      <c r="B116" t="s">
+        <v>121</v>
+      </c>
+      <c r="C116" t="s">
+        <v>100</v>
+      </c>
+      <c r="D116" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10">
+      <c r="B117" t="s">
+        <v>123</v>
+      </c>
+      <c r="C117" t="s">
+        <v>100</v>
+      </c>
+      <c r="D117" t="s">
+        <v>124</v>
+      </c>
+      <c r="E117" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" ht="18" thickBot="1"/>
+    <row r="119" spans="2:10">
+      <c r="B119" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="10"/>
+    </row>
+    <row r="120" spans="2:10">
+      <c r="B120" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="13"/>
+    </row>
+    <row r="121" spans="2:10" ht="38.4" customHeight="1" thickBot="1">
+      <c r="B121" s="14"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+    </row>
+    <row r="123" spans="2:10">
+      <c r="B123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10">
+      <c r="B124" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+    </row>
+    <row r="125" spans="2:10">
+      <c r="B125" t="s">
+        <v>131</v>
+      </c>
+      <c r="D125" t="s">
+        <v>132</v>
+      </c>
+      <c r="E125" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B79:J79"/>
-    <mergeCell ref="B80:J81"/>
-    <mergeCell ref="B90:J90"/>
-    <mergeCell ref="B91:J92"/>
-    <mergeCell ref="B53:J54"/>
-    <mergeCell ref="B70:J70"/>
-    <mergeCell ref="B71:J72"/>
+  <mergeCells count="22">
+    <mergeCell ref="B120:J121"/>
+    <mergeCell ref="B100:J100"/>
+    <mergeCell ref="B101:J102"/>
+    <mergeCell ref="B109:J109"/>
+    <mergeCell ref="B110:J111"/>
+    <mergeCell ref="B119:J119"/>
     <mergeCell ref="B52:J52"/>
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="B5:J6"/>
@@ -2193,6 +2599,13 @@
     <mergeCell ref="B32:J33"/>
     <mergeCell ref="B31:J31"/>
     <mergeCell ref="B22:J23"/>
+    <mergeCell ref="B79:J79"/>
+    <mergeCell ref="B80:J81"/>
+    <mergeCell ref="B90:J90"/>
+    <mergeCell ref="B91:J92"/>
+    <mergeCell ref="B53:J54"/>
+    <mergeCell ref="B70:J70"/>
+    <mergeCell ref="B71:J72"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
